--- a/spare_parts/template_personal_spare_part.xlsx
+++ b/spare_parts/template_personal_spare_part.xlsx
@@ -288,18 +288,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +603,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,13 +618,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
@@ -636,13 +636,13 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>3012</v>
       </c>
     </row>
@@ -976,18 +976,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1272,18 +1272,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1568,18 +1568,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1864,18 +1864,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2160,18 +2160,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2456,18 +2456,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2752,18 +2752,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3048,18 +3048,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3344,18 +3344,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3640,18 +3640,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3935,18 +3935,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4230,18 +4230,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4525,18 +4525,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4820,18 +4820,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5115,18 +5115,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5410,18 +5410,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5705,18 +5705,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6000,18 +6000,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6295,18 +6295,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6590,18 +6590,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6885,18 +6885,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7180,18 +7180,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7475,18 +7475,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7770,18 +7770,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8065,18 +8065,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8360,18 +8360,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8655,18 +8655,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8950,18 +8950,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9245,18 +9245,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9540,18 +9540,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9835,18 +9835,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10130,18 +10130,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10425,18 +10425,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10720,18 +10720,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11015,18 +11015,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11310,18 +11310,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11605,18 +11605,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11900,18 +11900,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12195,18 +12195,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12490,18 +12490,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12785,18 +12785,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13080,18 +13080,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13375,18 +13375,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13670,18 +13670,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13965,18 +13965,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14260,18 +14260,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14555,18 +14555,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14850,18 +14850,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15145,18 +15145,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15440,18 +15440,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15735,18 +15735,18 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="16"/>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
